--- a/medicine/Mort/Association_française_d'information_funéraire/Association_française_d'information_funéraire.xlsx
+++ b/medicine/Mort/Association_française_d'information_funéraire/Association_française_d'information_funéraire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Association_fran%C3%A7aise_d%27information_fun%C3%A9raire</t>
+          <t>Association_française_d'information_funéraire</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t>L'Association française d’information funéraire est une association loi de 1901 fondée par Michel Kawnik, qui se donne pour but l'information du public et la défense des intérêts des familles, en France et ailleurs, pour ce qui concerne la mort, les rites funéraires, le deuil et le souvenir.
 Cette association contribue aussi à des conférences, colloques, et participe à des commissions consultatives des services publics locaux. 
